--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_25_25.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_25_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1403554.943645747</v>
+        <v>1400856.427799205</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10602810.87496469</v>
+        <v>10603643.80425959</v>
       </c>
     </row>
     <row r="11">
@@ -665,19 +665,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>187.5255871663201</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.09783323005805</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666373</v>
+        <v>77.0817190166639</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -713,7 +713,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>137.0472549757182</v>
+        <v>81.21477241771899</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>187.5255871663196</v>
       </c>
     </row>
     <row r="3">
@@ -738,7 +738,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -747,19 +747,19 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>58.90455890409152</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265835</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.43289562846316</v>
+        <v>72.43289562846324</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>134.6338834659137</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>122.9522229194538</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="W3" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>38.11163636040544</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -841,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>14.10430989402859</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -856,10 +856,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709382</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>34.10833718734084</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -893,22 +893,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>122.9857632702337</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>411.8707348436268</v>
+        <v>369.116343620101</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -941,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T5" t="n">
         <v>208.0722578696039</v>
@@ -975,25 +975,25 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>135.5072338470353</v>
       </c>
       <c r="H6" t="n">
-        <v>94.50081326185514</v>
+        <v>49.55339958511133</v>
       </c>
       <c r="I6" t="n">
-        <v>36.29946757904885</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>31.66886087721431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>137.5750138932992</v>
@@ -1029,10 +1029,10 @@
         <v>192.7632183107638</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V6" t="n">
-        <v>215.6996251240177</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1096,13 +1096,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>22.59469128425553</v>
       </c>
       <c r="R7" t="n">
-        <v>108.0728512656386</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>197.1876907596159</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>20.45644432565729</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>16.59929673006521</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>47.80500862006323</v>
       </c>
       <c r="G8" t="n">
-        <v>11.83349180859359</v>
+        <v>411.8317058071198</v>
       </c>
       <c r="H8" t="n">
-        <v>303.9453895236494</v>
+        <v>303.9270986360556</v>
       </c>
       <c r="I8" t="n">
-        <v>76.72779446896612</v>
+        <v>76.65893964714633</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,22 +1184,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>207.9014082622944</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>323.5149704337391</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1212,25 +1212,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>11.65201849136641</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>135.4873070665456</v>
+        <v>135.4863514715117</v>
       </c>
       <c r="H9" t="n">
-        <v>94.30836251344155</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>35.61339202271524</v>
+        <v>35.580491053348</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,22 +1257,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>30.37232180742816</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>137.1871329268861</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>192.6790476831053</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.8192001275736</v>
       </c>
       <c r="V9" t="n">
-        <v>175.4501987006622</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -1294,16 +1294,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>27.40969387534557</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>2.362320503016103</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>21.1957963346153</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>309.1785236046448</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1382,10 +1382,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.4296912136494</v>
+        <v>410.3498598144164</v>
       </c>
       <c r="H11" t="n">
-        <v>289.5687166806773</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>97.97552699114104</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>201.7640893793779</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9558092037176</v>
+        <v>250.949422691779</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>245.0056390894965</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1461,13 +1461,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.7362075312412</v>
+        <v>134.6934939670195</v>
       </c>
       <c r="H12" t="n">
-        <v>87.05432226458126</v>
+        <v>86.64179915749274</v>
       </c>
       <c r="I12" t="n">
-        <v>9.753166794035252</v>
+        <v>8.28254627148992</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,13 +1497,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>123.253538246862</v>
+        <v>122.4601525254633</v>
       </c>
       <c r="T12" t="n">
-        <v>189.655441187015</v>
+        <v>189.4832755487706</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7698485525558</v>
+        <v>225.7670384496465</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>93.26056302802219</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1540,10 +1540,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.8050985482227</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.7927049400678</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,13 +1576,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>185.2985930389547</v>
       </c>
       <c r="T13" t="n">
-        <v>218.6059168754546</v>
+        <v>218.4529121465557</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1997994941144</v>
+        <v>286.1978462422561</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>166.1823115242733</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>332.4423155261894</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1658,7 +1658,7 @@
         <v>84.61259060081962</v>
       </c>
       <c r="T14" t="n">
-        <v>199.1970568374742</v>
+        <v>148.905530700185</v>
       </c>
       <c r="U14" t="n">
         <v>250.9088959876463</v>
@@ -1762,25 +1762,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>156.7148338285348</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H16" t="n">
-        <v>140.4539897919539</v>
+        <v>88.47026170030779</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1816,7 +1816,7 @@
         <v>181.338488358459</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4819944627618</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.1854515484204</v>
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>304.3915154833927</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1856,10 +1856,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1935,10 +1935,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>134.4010792945512</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1971,13 +1971,13 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>117.0286782364134</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T18" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U18" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -2005,19 +2005,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>43.73846614325486</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>8.102241693788123</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>314.9813656337172</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2093,10 +2093,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2172,10 +2172,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>134.4010792945512</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128545</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2208,13 +2208,13 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>117.0286782364134</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T21" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U21" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2248,16 +2248,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>40.95820988255232</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T22" t="n">
-        <v>107.4021082756246</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576169</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2488,10 +2488,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>20.38427178198041</v>
       </c>
       <c r="H25" t="n">
-        <v>55.52079624060383</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,13 +2524,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2564,10 +2564,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,7 +2713,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>57.24347904696434</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2722,7 +2722,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>55.02344404120817</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2731,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272877</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444144</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2965,10 +2965,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>109.8058856274577</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>105.6507867899572</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3038,10 +3038,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518788</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3184,25 +3184,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>161.3373146097489</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>107.4021082756237</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569558</v>
+        <v>83.70251495695614</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3430,7 +3430,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465675</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -3439,10 +3439,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3478,19 +3478,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>132.4736633694648</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>73.78331078915453</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695612</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3560,7 +3560,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701358</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>39.83255574579485</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3679,7 +3679,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>26.13627195705882</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187879</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>69.82863813027271</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>47.88058113793269</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4132,19 +4132,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>80.5641289012158</v>
+        <v>41.33703994143035</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4153,7 +4153,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,10 +4183,10 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533.8104557436823</v>
+        <v>400.787117755478</v>
       </c>
       <c r="C2" t="n">
-        <v>533.8104557436823</v>
+        <v>400.787117755478</v>
       </c>
       <c r="D2" t="n">
-        <v>533.8104557436823</v>
+        <v>400.787117755478</v>
       </c>
       <c r="E2" t="n">
-        <v>344.3906707271973</v>
+        <v>400.787117755478</v>
       </c>
       <c r="F2" t="n">
-        <v>154.9708857107124</v>
+        <v>393.8416170062745</v>
       </c>
       <c r="G2" t="n">
-        <v>141.7407511348962</v>
+        <v>204.4218319897901</v>
       </c>
       <c r="H2" t="n">
-        <v>141.7407511348962</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="I2" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678508</v>
+        <v>21.033711606785</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058969</v>
+        <v>80.81213159058973</v>
       </c>
       <c r="L2" t="n">
         <v>191.8743094079186</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644756</v>
+        <v>347.1218190644755</v>
       </c>
       <c r="N2" t="n">
-        <v>509.495204112383</v>
+        <v>509.4952041123826</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985586</v>
+        <v>649.4845259985576</v>
       </c>
       <c r="P2" t="n">
-        <v>734.461172602027</v>
+        <v>734.4611726020256</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652803</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="R2" t="n">
-        <v>672.2420264262259</v>
+        <v>672.2420264262241</v>
       </c>
       <c r="S2" t="n">
-        <v>672.2420264262259</v>
+        <v>672.2420264262241</v>
       </c>
       <c r="T2" t="n">
-        <v>672.2420264262259</v>
+        <v>672.2420264262241</v>
       </c>
       <c r="U2" t="n">
-        <v>533.8104557436823</v>
+        <v>590.2069027719625</v>
       </c>
       <c r="V2" t="n">
-        <v>533.8104557436823</v>
+        <v>590.2069027719625</v>
       </c>
       <c r="W2" t="n">
-        <v>533.8104557436823</v>
+        <v>590.2069027719625</v>
       </c>
       <c r="X2" t="n">
-        <v>533.8104557436823</v>
+        <v>590.2069027719625</v>
       </c>
       <c r="Y2" t="n">
-        <v>533.8104557436823</v>
+        <v>400.787117755478</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>351.5242009272025</v>
+        <v>212.0407825994337</v>
       </c>
       <c r="C3" t="n">
-        <v>177.0711716460755</v>
+        <v>212.0407825994337</v>
       </c>
       <c r="D3" t="n">
-        <v>177.0711716460755</v>
+        <v>212.0407825994337</v>
       </c>
       <c r="E3" t="n">
-        <v>177.0711716460755</v>
+        <v>212.0407825994337</v>
       </c>
       <c r="F3" t="n">
-        <v>30.53661367296051</v>
+        <v>212.0407825994337</v>
       </c>
       <c r="G3" t="n">
-        <v>30.53661367296051</v>
+        <v>74.50160142188287</v>
       </c>
       <c r="H3" t="n">
-        <v>30.53661367296051</v>
+        <v>74.50160142188287</v>
       </c>
       <c r="I3" t="n">
-        <v>30.53661367296051</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="J3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024222</v>
+        <v>67.13418877024199</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772651</v>
+        <v>183.5548280772646</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140246</v>
+        <v>338.7690911140238</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546605</v>
+        <v>512.5000587546593</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476352</v>
+        <v>649.2101578476339</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017067</v>
+        <v>739.5989987017052</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652803</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="R3" t="n">
-        <v>676.9378076264286</v>
+        <v>676.9378076264268</v>
       </c>
       <c r="S3" t="n">
-        <v>676.9378076264286</v>
+        <v>525.6547321810231</v>
       </c>
       <c r="T3" t="n">
-        <v>540.9439859436875</v>
+        <v>525.6547321810231</v>
       </c>
       <c r="U3" t="n">
-        <v>540.9439859436875</v>
+        <v>401.4605676159182</v>
       </c>
       <c r="V3" t="n">
-        <v>540.9439859436875</v>
+        <v>212.0407825994337</v>
       </c>
       <c r="W3" t="n">
-        <v>351.5242009272025</v>
+        <v>212.0407825994337</v>
       </c>
       <c r="X3" t="n">
-        <v>351.5242009272025</v>
+        <v>212.0407825994337</v>
       </c>
       <c r="Y3" t="n">
-        <v>351.5242009272025</v>
+        <v>212.0407825994337</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="C4" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="D4" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="E4" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="F4" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="G4" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="H4" t="n">
-        <v>15.0020469733056</v>
+        <v>29.24882464404152</v>
       </c>
       <c r="I4" t="n">
-        <v>15.0020469733056</v>
+        <v>29.24882464404152</v>
       </c>
       <c r="J4" t="n">
-        <v>15.0020469733056</v>
+        <v>29.24882464404152</v>
       </c>
       <c r="K4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230183</v>
+        <v>27.03967056230162</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170729</v>
+        <v>42.98993985170694</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396353</v>
+        <v>66.418473293963</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="P4" t="n">
-        <v>49.45491281910444</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="Q4" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="R4" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="S4" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="T4" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="U4" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="V4" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="W4" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="X4" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="Y4" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828944</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1020.847122105393</v>
+        <v>502.1126267794015</v>
       </c>
       <c r="C5" t="n">
-        <v>1020.847122105393</v>
+        <v>502.1126267794015</v>
       </c>
       <c r="D5" t="n">
-        <v>662.5814234986422</v>
+        <v>502.1126267794015</v>
       </c>
       <c r="E5" t="n">
-        <v>662.5814234986422</v>
+        <v>502.1126267794015</v>
       </c>
       <c r="F5" t="n">
-        <v>538.3533797913353</v>
+        <v>495.1671260301981</v>
       </c>
       <c r="G5" t="n">
         <v>122.3223344947425</v>
@@ -4565,13 +4565,13 @@
         <v>43.36919653809306</v>
       </c>
       <c r="J5" t="n">
-        <v>152.5078184301901</v>
+        <v>152.50781843019</v>
       </c>
       <c r="K5" t="n">
         <v>366.8168396232717</v>
       </c>
       <c r="L5" t="n">
-        <v>669.5878927711865</v>
+        <v>669.5878927711866</v>
       </c>
       <c r="M5" t="n">
         <v>1038.14846457873</v>
@@ -4592,25 +4592,25 @@
         <v>2168.459826904653</v>
       </c>
       <c r="S5" t="n">
-        <v>2168.459826904653</v>
+        <v>2036.325171642784</v>
       </c>
       <c r="T5" t="n">
-        <v>1958.285829056568</v>
+        <v>1826.151173794699</v>
       </c>
       <c r="U5" t="n">
-        <v>1704.678664719077</v>
+        <v>1572.544009457208</v>
       </c>
       <c r="V5" t="n">
-        <v>1373.615777375507</v>
+        <v>1241.481122113637</v>
       </c>
       <c r="W5" t="n">
-        <v>1020.847122105393</v>
+        <v>888.7124668435233</v>
       </c>
       <c r="X5" t="n">
-        <v>1020.847122105393</v>
+        <v>888.7124668435233</v>
       </c>
       <c r="Y5" t="n">
-        <v>1020.847122105393</v>
+        <v>888.7124668435233</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>767.0731087616919</v>
+        <v>955.9193478113816</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0731087616919</v>
+        <v>781.4663185302546</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1386991004406</v>
+        <v>632.5319088690034</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9012440949851</v>
+        <v>632.5319088690034</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3666861218701</v>
+        <v>632.5319088690034</v>
       </c>
       <c r="G6" t="n">
-        <v>175.490692336986</v>
+        <v>495.6559150841193</v>
       </c>
       <c r="H6" t="n">
-        <v>80.03532540581918</v>
+        <v>445.6019761092593</v>
       </c>
       <c r="I6" t="n">
-        <v>43.36919653809306</v>
+        <v>445.6019761092593</v>
       </c>
       <c r="J6" t="n">
-        <v>89.55356510562316</v>
+        <v>491.7863446767894</v>
       </c>
       <c r="K6" t="n">
-        <v>246.6448318504519</v>
+        <v>648.8776114216182</v>
       </c>
       <c r="L6" t="n">
-        <v>504.1959674104395</v>
+        <v>906.4287469816059</v>
       </c>
       <c r="M6" t="n">
-        <v>824.1028628789488</v>
+        <v>1226.335642450115</v>
       </c>
       <c r="N6" t="n">
-        <v>1166.88538687358</v>
+        <v>1569.118166444747</v>
       </c>
       <c r="O6" t="n">
-        <v>1458.244633128146</v>
+        <v>1860.477412699312</v>
       </c>
       <c r="P6" t="n">
-        <v>1672.753048689047</v>
+        <v>2074.985828260213</v>
       </c>
       <c r="Q6" t="n">
-        <v>1766.227047333487</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="R6" t="n">
-        <v>1734.238298972664</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="S6" t="n">
-        <v>1595.273638474382</v>
+        <v>2029.495166406371</v>
       </c>
       <c r="T6" t="n">
-        <v>1400.563316948358</v>
+        <v>1834.784844880347</v>
       </c>
       <c r="U6" t="n">
-        <v>1400.563316948358</v>
+        <v>1606.683255013611</v>
       </c>
       <c r="V6" t="n">
-        <v>1182.684907732179</v>
+        <v>1371.531146781868</v>
       </c>
       <c r="W6" t="n">
-        <v>1182.684907732179</v>
+        <v>1371.531146781868</v>
       </c>
       <c r="X6" t="n">
-        <v>974.8334075266457</v>
+        <v>1163.679646576335</v>
       </c>
       <c r="Y6" t="n">
-        <v>767.0731087616919</v>
+        <v>955.9193478113816</v>
       </c>
     </row>
     <row r="7">
@@ -4744,28 +4744,28 @@
         <v>520.2893470405991</v>
       </c>
       <c r="Q7" t="n">
-        <v>520.2893470405991</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="R7" t="n">
-        <v>411.1248508126813</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="S7" t="n">
-        <v>211.9453651969077</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="T7" t="n">
-        <v>211.9453651969077</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="U7" t="n">
-        <v>211.9453651969077</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="V7" t="n">
-        <v>211.9453651969077</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="W7" t="n">
-        <v>211.9453651969077</v>
+        <v>208.0492565144914</v>
       </c>
       <c r="X7" t="n">
-        <v>191.2822901204862</v>
+        <v>208.0492565144914</v>
       </c>
       <c r="Y7" t="n">
         <v>191.2822901204862</v>
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>816.6568275609395</v>
+        <v>2006.047293691593</v>
       </c>
       <c r="C8" t="n">
-        <v>447.6943106205278</v>
+        <v>1637.084776751181</v>
       </c>
       <c r="D8" t="n">
-        <v>447.6943106205278</v>
+        <v>1278.81907814443</v>
       </c>
       <c r="E8" t="n">
-        <v>447.6943106205278</v>
+        <v>893.0308255461862</v>
       </c>
       <c r="F8" t="n">
-        <v>440.7488098713243</v>
+        <v>844.7429380511728</v>
       </c>
       <c r="G8" t="n">
-        <v>428.7957878424419</v>
+        <v>428.7513160237791</v>
       </c>
       <c r="H8" t="n">
-        <v>121.7802428690587</v>
+        <v>121.7542466944301</v>
       </c>
       <c r="I8" t="n">
-        <v>44.27742017313329</v>
+        <v>44.32097432357517</v>
       </c>
       <c r="J8" t="n">
-        <v>156.5453885494312</v>
+        <v>156.7390114960371</v>
       </c>
       <c r="K8" t="n">
-        <v>375.5444889229396</v>
+        <v>375.9630260936721</v>
       </c>
       <c r="L8" t="n">
-        <v>684.1340000193438</v>
+        <v>684.8315631733817</v>
       </c>
       <c r="M8" t="n">
-        <v>1059.168727391405</v>
+        <v>1060.176760714421</v>
       </c>
       <c r="N8" t="n">
-        <v>1444.885717117915</v>
+        <v>1446.209244341831</v>
       </c>
       <c r="O8" t="n">
-        <v>1795.772071623103</v>
+        <v>1797.393510791283</v>
       </c>
       <c r="P8" t="n">
-        <v>2060.744456291603</v>
+        <v>2062.620156411778</v>
       </c>
       <c r="Q8" t="n">
-        <v>2211.554935535255</v>
+        <v>2213.62157504142</v>
       </c>
       <c r="R8" t="n">
-        <v>2213.871008656664</v>
+        <v>2216.048716178759</v>
       </c>
       <c r="S8" t="n">
-        <v>2213.871008656664</v>
+        <v>2216.048716178759</v>
       </c>
       <c r="T8" t="n">
-        <v>2213.871008656664</v>
+        <v>2006.047293691593</v>
       </c>
       <c r="U8" t="n">
-        <v>2213.871008656664</v>
+        <v>2006.047293691593</v>
       </c>
       <c r="V8" t="n">
-        <v>1882.808121313094</v>
+        <v>2006.047293691593</v>
       </c>
       <c r="W8" t="n">
-        <v>1530.039466042979</v>
+        <v>2006.047293691593</v>
       </c>
       <c r="X8" t="n">
-        <v>1530.039466042979</v>
+        <v>2006.047293691593</v>
       </c>
       <c r="Y8" t="n">
-        <v>1203.256667625061</v>
+        <v>2006.047293691593</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>782.2893783034775</v>
+        <v>388.1229354060268</v>
       </c>
       <c r="C9" t="n">
-        <v>607.8363490223505</v>
+        <v>388.1229354060268</v>
       </c>
       <c r="D9" t="n">
-        <v>458.9019393610993</v>
+        <v>376.3532197581819</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9019393610993</v>
+        <v>217.1157647527264</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3673813879842</v>
+        <v>217.1157647527264</v>
       </c>
       <c r="G9" t="n">
-        <v>175.5115156642008</v>
+        <v>80.26086427645194</v>
       </c>
       <c r="H9" t="n">
-        <v>80.25054342840122</v>
+        <v>80.26086427645194</v>
       </c>
       <c r="I9" t="n">
-        <v>44.27742017313329</v>
+        <v>44.32097432357517</v>
       </c>
       <c r="J9" t="n">
-        <v>92.32560606848412</v>
+        <v>92.45854016584678</v>
       </c>
       <c r="K9" t="n">
-        <v>252.6024334910147</v>
+        <v>252.8881321538935</v>
       </c>
       <c r="L9" t="n">
-        <v>514.4369485047771</v>
+        <v>514.9280579783108</v>
       </c>
       <c r="M9" t="n">
-        <v>839.342345761885</v>
+        <v>840.0731599628507</v>
       </c>
       <c r="N9" t="n">
-        <v>1187.255667013953</v>
+        <v>1188.232530213222</v>
       </c>
       <c r="O9" t="n">
-        <v>1483.308590376466</v>
+        <v>1484.510540339609</v>
       </c>
       <c r="P9" t="n">
-        <v>1701.584095618378</v>
+        <v>1702.96669755353</v>
       </c>
       <c r="Q9" t="n">
-        <v>1797.576293952196</v>
+        <v>1799.079656946499</v>
       </c>
       <c r="R9" t="n">
-        <v>1797.576293952196</v>
+        <v>1768.400544009703</v>
       </c>
       <c r="S9" t="n">
-        <v>1797.576293952196</v>
+        <v>1629.827682467394</v>
       </c>
       <c r="T9" t="n">
-        <v>1797.576293952196</v>
+        <v>1435.202381777388</v>
       </c>
       <c r="U9" t="n">
-        <v>1797.576293952196</v>
+        <v>1207.102179628324</v>
       </c>
       <c r="V9" t="n">
-        <v>1620.353871022234</v>
+        <v>971.9500713965815</v>
       </c>
       <c r="W9" t="n">
-        <v>1366.116514294032</v>
+        <v>971.9500713965815</v>
       </c>
       <c r="X9" t="n">
-        <v>1158.265014088499</v>
+        <v>764.0985711910487</v>
       </c>
       <c r="Y9" t="n">
-        <v>950.5047153235455</v>
+        <v>556.3382724260948</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>513.6295184220479</v>
+        <v>535.7467578018316</v>
       </c>
       <c r="C10" t="n">
-        <v>344.693335494141</v>
+        <v>366.8105748739247</v>
       </c>
       <c r="D10" t="n">
-        <v>194.5766960818053</v>
+        <v>366.8105748739247</v>
       </c>
       <c r="E10" t="n">
-        <v>46.66360249941218</v>
+        <v>218.8974812915316</v>
       </c>
       <c r="F10" t="n">
-        <v>46.66360249941218</v>
+        <v>72.00753379362121</v>
       </c>
       <c r="G10" t="n">
-        <v>46.66360249941218</v>
+        <v>44.32097432357517</v>
       </c>
       <c r="H10" t="n">
-        <v>46.66360249941218</v>
+        <v>44.32097432357517</v>
       </c>
       <c r="I10" t="n">
-        <v>46.66360249941218</v>
+        <v>44.32097432357517</v>
       </c>
       <c r="J10" t="n">
-        <v>44.27742017313329</v>
+        <v>44.32097432357517</v>
       </c>
       <c r="K10" t="n">
-        <v>95.54660022226379</v>
+        <v>95.68230135470543</v>
       </c>
       <c r="L10" t="n">
-        <v>191.0592970264676</v>
+        <v>191.3129145707734</v>
       </c>
       <c r="M10" t="n">
-        <v>295.0223269524038</v>
+        <v>295.4002708199195</v>
       </c>
       <c r="N10" t="n">
-        <v>404.3708743014467</v>
+        <v>404.8701882900893</v>
       </c>
       <c r="O10" t="n">
-        <v>485.0588674359229</v>
+        <v>485.6702863757497</v>
       </c>
       <c r="P10" t="n">
-        <v>535.0394137095381</v>
+        <v>535.7467578018316</v>
       </c>
       <c r="Q10" t="n">
-        <v>513.6295184220479</v>
+        <v>535.7467578018316</v>
       </c>
       <c r="R10" t="n">
-        <v>513.6295184220479</v>
+        <v>535.7467578018316</v>
       </c>
       <c r="S10" t="n">
-        <v>513.6295184220479</v>
+        <v>535.7467578018316</v>
       </c>
       <c r="T10" t="n">
-        <v>513.6295184220479</v>
+        <v>535.7467578018316</v>
       </c>
       <c r="U10" t="n">
-        <v>513.6295184220479</v>
+        <v>535.7467578018316</v>
       </c>
       <c r="V10" t="n">
-        <v>513.6295184220479</v>
+        <v>535.7467578018316</v>
       </c>
       <c r="W10" t="n">
-        <v>513.6295184220479</v>
+        <v>535.7467578018316</v>
       </c>
       <c r="X10" t="n">
-        <v>513.6295184220479</v>
+        <v>535.7467578018316</v>
       </c>
       <c r="Y10" t="n">
-        <v>513.6295184220479</v>
+        <v>535.7467578018316</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2252.921560097043</v>
+        <v>2018.955047670597</v>
       </c>
       <c r="C11" t="n">
-        <v>1940.620021102452</v>
+        <v>1649.992530730186</v>
       </c>
       <c r="D11" t="n">
-        <v>1582.354322495702</v>
+        <v>1291.726832123436</v>
       </c>
       <c r="E11" t="n">
-        <v>1196.566069897458</v>
+        <v>905.9385795251915</v>
       </c>
       <c r="F11" t="n">
-        <v>785.5801651078501</v>
+        <v>494.952674735584</v>
       </c>
       <c r="G11" t="n">
-        <v>371.0047194374972</v>
+        <v>80.45786684223401</v>
       </c>
       <c r="H11" t="n">
-        <v>78.51106622469182</v>
+        <v>80.45786684223401</v>
       </c>
       <c r="I11" t="n">
-        <v>78.51106622469182</v>
+        <v>80.45786684223401</v>
       </c>
       <c r="J11" t="n">
-        <v>308.7333971386834</v>
+        <v>317.3880320746712</v>
       </c>
       <c r="K11" t="n">
-        <v>704.5155104420319</v>
+        <v>723.2234501947032</v>
       </c>
       <c r="L11" t="n">
-        <v>1232.419981301224</v>
+        <v>1263.599934653014</v>
       </c>
       <c r="M11" t="n">
-        <v>1851.484858878109</v>
+        <v>1896.542330458666</v>
       </c>
       <c r="N11" t="n">
-        <v>2485.180661765424</v>
+        <v>2544.340204328189</v>
       </c>
       <c r="O11" t="n">
-        <v>3070.2263776871</v>
+        <v>3142.70210599071</v>
       </c>
       <c r="P11" t="n">
-        <v>3535.048359856282</v>
+        <v>3618.889144608858</v>
       </c>
       <c r="Q11" t="n">
-        <v>3835.93756388224</v>
+        <v>3928.3130327186</v>
       </c>
       <c r="R11" t="n">
-        <v>3925.553311234591</v>
+        <v>4022.8933421117</v>
       </c>
       <c r="S11" t="n">
-        <v>3826.58813245566</v>
+        <v>4022.8933421117</v>
       </c>
       <c r="T11" t="n">
-        <v>3622.78602197144</v>
+        <v>4022.8933421117</v>
       </c>
       <c r="U11" t="n">
-        <v>3369.295305604049</v>
+        <v>3769.409076766469</v>
       </c>
       <c r="V11" t="n">
-        <v>3369.295305604049</v>
+        <v>3521.928633241725</v>
       </c>
       <c r="W11" t="n">
-        <v>3016.526650333934</v>
+        <v>3169.159977971611</v>
       </c>
       <c r="X11" t="n">
-        <v>2643.060892072855</v>
+        <v>2795.694219710531</v>
       </c>
       <c r="Y11" t="n">
-        <v>2252.921560097043</v>
+        <v>2405.554887734719</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5530399535777</v>
+        <v>941.5545302742961</v>
       </c>
       <c r="C12" t="n">
-        <v>767.1000106724507</v>
+        <v>767.1015009931691</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1656010111994</v>
+        <v>618.1670913319178</v>
       </c>
       <c r="E12" t="n">
-        <v>458.928146005744</v>
+        <v>458.9296363264624</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3935880326289</v>
+        <v>312.3950783533473</v>
       </c>
       <c r="G12" t="n">
-        <v>176.2964087081428</v>
+        <v>176.3410440432266</v>
       </c>
       <c r="H12" t="n">
-        <v>88.36274985503046</v>
+        <v>88.82407519727434</v>
       </c>
       <c r="I12" t="n">
-        <v>78.51106622469182</v>
+        <v>80.45786684223401</v>
       </c>
       <c r="J12" t="n">
-        <v>78.51106622469182</v>
+        <v>80.45786684223401</v>
       </c>
       <c r="K12" t="n">
-        <v>358.8611360831292</v>
+        <v>197.7334562039179</v>
       </c>
       <c r="L12" t="n">
-        <v>782.1489435104386</v>
+        <v>630.2027971699434</v>
       </c>
       <c r="M12" t="n">
-        <v>1295.462717754328</v>
+        <v>1154.230987988555</v>
       </c>
       <c r="N12" t="n">
-        <v>1836.771025105395</v>
+        <v>1706.537290639335</v>
       </c>
       <c r="O12" t="n">
-        <v>2309.742577971143</v>
+        <v>2189.569860571537</v>
       </c>
       <c r="P12" t="n">
-        <v>2558.889669173201</v>
+        <v>2557.913016602452</v>
       </c>
       <c r="Q12" t="n">
-        <v>2558.889669173201</v>
+        <v>2557.913016602452</v>
       </c>
       <c r="R12" t="n">
-        <v>2558.889669173201</v>
+        <v>2557.913016602452</v>
       </c>
       <c r="S12" t="n">
-        <v>2434.391145691522</v>
+        <v>2434.215892839358</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.819992977365</v>
+        <v>2242.818644810297</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.769640904077</v>
+        <v>2014.771131224795</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.617532672334</v>
+        <v>1779.619022993052</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.380175944132</v>
+        <v>1525.381666264851</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.5286757386</v>
+        <v>1317.530166059318</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.768376973646</v>
+        <v>1109.769867294364</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>706.0521496689844</v>
+        <v>321.5504032573386</v>
       </c>
       <c r="C13" t="n">
-        <v>537.1159667410775</v>
+        <v>227.3478143401444</v>
       </c>
       <c r="D13" t="n">
-        <v>537.1159667410775</v>
+        <v>227.3478143401444</v>
       </c>
       <c r="E13" t="n">
-        <v>537.1159667410775</v>
+        <v>227.3478143401444</v>
       </c>
       <c r="F13" t="n">
-        <v>390.2260192431671</v>
+        <v>80.45786684223401</v>
       </c>
       <c r="G13" t="n">
-        <v>222.7461217197098</v>
+        <v>80.45786684223401</v>
       </c>
       <c r="H13" t="n">
-        <v>78.51106622469182</v>
+        <v>80.45786684223401</v>
       </c>
       <c r="I13" t="n">
-        <v>78.51106622469182</v>
+        <v>80.45786684223401</v>
       </c>
       <c r="J13" t="n">
-        <v>139.0818334600399</v>
+        <v>143.5350566283901</v>
       </c>
       <c r="K13" t="n">
-        <v>368.4550473457703</v>
+        <v>377.0270927076815</v>
       </c>
       <c r="L13" t="n">
-        <v>717.5002252888914</v>
+        <v>731.3429449977123</v>
       </c>
       <c r="M13" t="n">
-        <v>1095.908548779221</v>
+        <v>1115.308455583784</v>
       </c>
       <c r="N13" t="n">
-        <v>1470.753784542993</v>
+        <v>1495.578740955085</v>
       </c>
       <c r="O13" t="n">
-        <v>1800.967734715848</v>
+        <v>1830.803602510216</v>
       </c>
       <c r="P13" t="n">
-        <v>2060.00213308252</v>
+        <v>2094.125701226117</v>
       </c>
       <c r="Q13" t="n">
-        <v>2155.909043551104</v>
+        <v>2193.001193167697</v>
       </c>
       <c r="R13" t="n">
-        <v>2155.909043551104</v>
+        <v>2193.001193167697</v>
       </c>
       <c r="S13" t="n">
-        <v>2155.909043551104</v>
+        <v>2005.830897168753</v>
       </c>
       <c r="T13" t="n">
-        <v>1935.09498610115</v>
+        <v>1785.17138995001</v>
       </c>
       <c r="U13" t="n">
-        <v>1646.004279541438</v>
+        <v>1496.082656371973</v>
       </c>
       <c r="V13" t="n">
-        <v>1391.319791335551</v>
+        <v>1241.398168166086</v>
       </c>
       <c r="W13" t="n">
-        <v>1101.902621298591</v>
+        <v>951.9809981291257</v>
       </c>
       <c r="X13" t="n">
-        <v>873.9130704005734</v>
+        <v>723.9914472311084</v>
       </c>
       <c r="Y13" t="n">
-        <v>706.0521496689844</v>
+        <v>503.1988680875783</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.224468905844</v>
+        <v>2317.224468905843</v>
       </c>
       <c r="C14" t="n">
         <v>1948.261951965432</v>
@@ -5261,67 +5261,67 @@
         <v>1589.996253358682</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.208000760437</v>
+        <v>1204.208000760438</v>
       </c>
       <c r="F14" t="n">
         <v>793.22209597083</v>
       </c>
       <c r="G14" t="n">
-        <v>379.2389888872365</v>
+        <v>379.2389888872364</v>
       </c>
       <c r="H14" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I14" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608057</v>
       </c>
       <c r="J14" t="n">
-        <v>372.3074987251935</v>
+        <v>372.3074987251948</v>
       </c>
       <c r="K14" t="n">
-        <v>841.9378825128754</v>
+        <v>841.9378825128776</v>
       </c>
       <c r="L14" t="n">
-        <v>1461.45766301865</v>
+        <v>1461.457663018653</v>
       </c>
       <c r="M14" t="n">
-        <v>2182.462224957688</v>
+        <v>2182.462224957691</v>
       </c>
       <c r="N14" t="n">
-        <v>2919.747202874794</v>
+        <v>2919.747202874796</v>
       </c>
       <c r="O14" t="n">
-        <v>3602.609239333932</v>
+        <v>3602.609239333935</v>
       </c>
       <c r="P14" t="n">
-        <v>4150.915188021281</v>
+        <v>4150.915188021283</v>
       </c>
       <c r="Q14" t="n">
-        <v>4514.497374127288</v>
+        <v>4514.49737412729</v>
       </c>
       <c r="R14" t="n">
-        <v>4640.581161304026</v>
+        <v>4640.581161304028</v>
       </c>
       <c r="S14" t="n">
-        <v>4555.113898070875</v>
+        <v>4555.113898070877</v>
       </c>
       <c r="T14" t="n">
-        <v>4353.904749750193</v>
+        <v>4404.704271100993</v>
       </c>
       <c r="U14" t="n">
-        <v>4100.461420469743</v>
+        <v>4151.260941820542</v>
       </c>
       <c r="V14" t="n">
-        <v>3769.398533126172</v>
+        <v>3820.198054476971</v>
       </c>
       <c r="W14" t="n">
-        <v>3416.629877856058</v>
+        <v>3467.429399206857</v>
       </c>
       <c r="X14" t="n">
-        <v>3043.164119594978</v>
+        <v>3093.963640945777</v>
       </c>
       <c r="Y14" t="n">
-        <v>2653.024787619166</v>
+        <v>2703.824308969965</v>
       </c>
     </row>
     <row r="15">
@@ -5343,34 +5343,34 @@
         <v>459.9992225560484</v>
       </c>
       <c r="F15" t="n">
-        <v>313.4646645829333</v>
+        <v>313.4646645829334</v>
       </c>
       <c r="G15" t="n">
         <v>177.6844143428629</v>
       </c>
       <c r="H15" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I15" t="n">
-        <v>92.81162322608053</v>
+        <v>93.85065580060315</v>
       </c>
       <c r="J15" t="n">
-        <v>240.4596049779265</v>
+        <v>241.4986375524491</v>
       </c>
       <c r="K15" t="n">
-        <v>240.4596049779265</v>
+        <v>572.0073801158079</v>
       </c>
       <c r="L15" t="n">
-        <v>731.1919378216778</v>
+        <v>1062.739712959559</v>
       </c>
       <c r="M15" t="n">
-        <v>1323.210292073806</v>
+        <v>1511.096147944828</v>
       </c>
       <c r="N15" t="n">
-        <v>1945.306255473142</v>
+        <v>2133.192111344164</v>
       </c>
       <c r="O15" t="n">
-        <v>2492.182730473336</v>
+        <v>2133.192111344164</v>
       </c>
       <c r="P15" t="n">
         <v>2552.77562977024</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>561.9183350635717</v>
+        <v>963.2455821794298</v>
       </c>
       <c r="C16" t="n">
-        <v>392.9821521356648</v>
+        <v>794.3093992515229</v>
       </c>
       <c r="D16" t="n">
-        <v>392.9821521356648</v>
+        <v>644.1927598391871</v>
       </c>
       <c r="E16" t="n">
-        <v>392.9821521356648</v>
+        <v>496.2796662567939</v>
       </c>
       <c r="F16" t="n">
-        <v>392.9821521356648</v>
+        <v>349.3897187588836</v>
       </c>
       <c r="G16" t="n">
-        <v>234.6843401876502</v>
+        <v>182.1755239334622</v>
       </c>
       <c r="H16" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I16" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J16" t="n">
-        <v>171.7937461156343</v>
+        <v>171.7937461156345</v>
       </c>
       <c r="K16" t="n">
-        <v>431.4224730861981</v>
+        <v>431.4224730861982</v>
       </c>
       <c r="L16" t="n">
         <v>819.1842911693324</v>
       </c>
       <c r="M16" t="n">
-        <v>1238.413883213791</v>
+        <v>1238.413883213792</v>
       </c>
       <c r="N16" t="n">
-        <v>1653.109749005498</v>
+        <v>1653.109749005499</v>
       </c>
       <c r="O16" t="n">
         <v>2020.132206020528</v>
       </c>
       <c r="P16" t="n">
-        <v>2310.662640856732</v>
+        <v>2310.662640856733</v>
       </c>
       <c r="Q16" t="n">
-        <v>2428.375774410167</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="R16" t="n">
-        <v>2428.375774410167</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="S16" t="n">
-        <v>2245.205584149097</v>
+        <v>2245.205584149098</v>
       </c>
       <c r="T16" t="n">
-        <v>2025.526801863479</v>
+        <v>2245.205584149098</v>
       </c>
       <c r="U16" t="n">
-        <v>1736.450588178207</v>
+        <v>1956.129370463825</v>
       </c>
       <c r="V16" t="n">
-        <v>1481.76609997232</v>
+        <v>1701.444882257938</v>
       </c>
       <c r="W16" t="n">
-        <v>1192.348929935359</v>
+        <v>1412.027712220977</v>
       </c>
       <c r="X16" t="n">
-        <v>964.3593790373416</v>
+        <v>1184.03816132296</v>
       </c>
       <c r="Y16" t="n">
-        <v>743.5667998938114</v>
+        <v>963.2455821794298</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2266.424947555045</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1897.462430614634</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1589.996253358682</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.208000760437</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.22209597083</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.2389888872365</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192548</v>
+        <v>92.81162322607997</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111708</v>
+        <v>372.307498725193</v>
       </c>
       <c r="K17" t="n">
-        <v>852.85236110758</v>
+        <v>841.9378825128742</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1461.457663018649</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2182.462224957687</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2919.747202874793</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3602.609239333931</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4150.915188021279</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4514.497374127288</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4640.581161304027</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4555.113898070876</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4353.904749750194</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4100.461420469744</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3769.398533126173</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3416.629877856059</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3043.164119594979</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2653.024787619167</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>943.3991132778466</v>
+        <v>942.6241165038822</v>
       </c>
       <c r="C18" t="n">
-        <v>768.9460839967196</v>
+        <v>768.1710872227552</v>
       </c>
       <c r="D18" t="n">
-        <v>620.0116743354683</v>
+        <v>619.2366775615039</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>459.9992225560484</v>
       </c>
       <c r="F18" t="n">
-        <v>314.2396613568978</v>
+        <v>313.4646645829333</v>
       </c>
       <c r="G18" t="n">
-        <v>178.4809954028057</v>
+        <v>177.6844143428629</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.85065580060314</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>241.4986375524491</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>572.0073801158079</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>1062.739712959559</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1654.758067211687</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>2276.854030611023</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="R18" t="n">
-        <v>2553.061288060775</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="S18" t="n">
-        <v>2434.850501963388</v>
+        <v>2434.163925027597</v>
       </c>
       <c r="T18" t="n">
-        <v>2244.643795685161</v>
+        <v>2243.870218930011</v>
       </c>
       <c r="U18" t="n">
-        <v>2016.615714228345</v>
+        <v>2015.840717454381</v>
       </c>
       <c r="V18" t="n">
-        <v>1781.463605996603</v>
+        <v>1780.688609222638</v>
       </c>
       <c r="W18" t="n">
-        <v>1527.226249268401</v>
+        <v>1526.451252494437</v>
       </c>
       <c r="X18" t="n">
-        <v>1319.374749062868</v>
+        <v>1318.599752288904</v>
       </c>
       <c r="Y18" t="n">
-        <v>1111.614450297915</v>
+        <v>1110.83945352395</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>763.7541388327647</v>
+        <v>714.8515691656033</v>
       </c>
       <c r="C19" t="n">
-        <v>594.8179559048579</v>
+        <v>545.9153862376965</v>
       </c>
       <c r="D19" t="n">
-        <v>594.8179559048579</v>
+        <v>395.7987468253607</v>
       </c>
       <c r="E19" t="n">
-        <v>446.9048623224649</v>
+        <v>247.8856532429677</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>100.9957057450574</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>100.9957057450574</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>171.7937461156344</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>431.4224730861981</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>819.1842911693324</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1238.413883213792</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1653.109749005499</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2020.132206020528</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2310.662640856733</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2360.516429368669</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.963083580261</v>
+        <v>2177.346239107599</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603202</v>
+        <v>1957.667456821981</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.2863919474</v>
+        <v>1668.591243136708</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741513</v>
+        <v>1413.906754930821</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.184733704552</v>
+        <v>1124.48958489386</v>
       </c>
       <c r="X19" t="n">
-        <v>1166.195182806535</v>
+        <v>896.5000339958431</v>
       </c>
       <c r="Y19" t="n">
-        <v>945.4026036630045</v>
+        <v>896.5000339958431</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2266.424947555045</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.261951965432</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1589.996253358682</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.208000760437</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.22209597083</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.2389888872365</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>92.81162322608043</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>372.3074987251935</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075798</v>
+        <v>841.9378825128756</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1461.45766301865</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2182.462224957688</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2919.747202874794</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3602.609239333933</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4150.915188021281</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4514.497374127289</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4640.581161304027</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4555.113898070876</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4353.904749750194</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4100.461420469744</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3769.398533126173</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3416.629877856059</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3043.164119594979</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2653.024787619167</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>943.3991132778466</v>
+        <v>942.6241165038822</v>
       </c>
       <c r="C21" t="n">
-        <v>768.9460839967196</v>
+        <v>768.1710872227552</v>
       </c>
       <c r="D21" t="n">
-        <v>620.0116743354683</v>
+        <v>619.2366775615039</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>459.9992225560484</v>
       </c>
       <c r="F21" t="n">
-        <v>314.2396613568978</v>
+        <v>313.4646645829333</v>
       </c>
       <c r="G21" t="n">
-        <v>178.4809954028057</v>
+        <v>177.6844143428629</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>240.4596049779265</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>570.9683475412853</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>1061.700680385037</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1653.719034637164</v>
       </c>
       <c r="N21" t="n">
-        <v>1731.250242493492</v>
+        <v>2275.814998036501</v>
       </c>
       <c r="O21" t="n">
-        <v>2283.159972732779</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="R21" t="n">
-        <v>2553.061288060775</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="S21" t="n">
-        <v>2434.850501963388</v>
+        <v>2434.163925027597</v>
       </c>
       <c r="T21" t="n">
-        <v>2244.643795685161</v>
+        <v>2243.870218930011</v>
       </c>
       <c r="U21" t="n">
-        <v>2016.615714228345</v>
+        <v>2015.840717454381</v>
       </c>
       <c r="V21" t="n">
-        <v>1781.463605996603</v>
+        <v>1780.688609222638</v>
       </c>
       <c r="W21" t="n">
-        <v>1527.226249268401</v>
+        <v>1526.451252494437</v>
       </c>
       <c r="X21" t="n">
-        <v>1319.374749062868</v>
+        <v>1318.599752288904</v>
       </c>
       <c r="Y21" t="n">
-        <v>1111.614450297915</v>
+        <v>1110.83945352395</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>874.8686257536376</v>
+        <v>809.6226195745505</v>
       </c>
       <c r="C22" t="n">
-        <v>705.9324428257307</v>
+        <v>640.6864366466436</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133949</v>
+        <v>490.5697972343078</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310019</v>
+        <v>342.6567036519148</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330918</v>
+        <v>342.6567036519148</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.4425088264937</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.4425088264937</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>171.7937461156343</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038344</v>
+        <v>431.4224730861979</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>819.184291169332</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1238.413883213791</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1653.109749005498</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2020.132206020528</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2310.662640856733</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2387.003845235873</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.963083580261</v>
+        <v>2203.833654974803</v>
       </c>
       <c r="T22" t="n">
-        <v>2338.476105524075</v>
+        <v>1984.154872689185</v>
       </c>
       <c r="U22" t="n">
-        <v>2049.400878868272</v>
+        <v>1984.154872689185</v>
       </c>
       <c r="V22" t="n">
-        <v>1794.716390662385</v>
+        <v>1729.470384483298</v>
       </c>
       <c r="W22" t="n">
-        <v>1505.299220625425</v>
+        <v>1440.053214446338</v>
       </c>
       <c r="X22" t="n">
-        <v>1277.309669727407</v>
+        <v>1212.06366354832</v>
       </c>
       <c r="Y22" t="n">
-        <v>1056.517090583877</v>
+        <v>991.2710844047903</v>
       </c>
     </row>
     <row r="23">
@@ -5978,19 +5978,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6005,16 +6005,16 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
         <v>4405.252601474784</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>680.0291294438176</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>763.7541388327643</v>
+        <v>869.9745311434715</v>
       </c>
       <c r="C25" t="n">
-        <v>594.8179559048574</v>
+        <v>701.0383482155646</v>
       </c>
       <c r="D25" t="n">
-        <v>444.7013164925216</v>
+        <v>550.9217088032287</v>
       </c>
       <c r="E25" t="n">
-        <v>296.7882229101285</v>
+        <v>403.0086152208357</v>
       </c>
       <c r="F25" t="n">
-        <v>149.8982754122182</v>
+        <v>256.1186677229255</v>
       </c>
       <c r="G25" t="n">
-        <v>149.8982754122182</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1938.286391947399</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V25" t="n">
-        <v>1683.601903741512</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W25" t="n">
-        <v>1394.184733704551</v>
+        <v>1500.405126015259</v>
       </c>
       <c r="X25" t="n">
-        <v>1166.195182806534</v>
+        <v>1272.415575117241</v>
       </c>
       <c r="Y25" t="n">
-        <v>945.402603663004</v>
+        <v>1051.622995973711</v>
       </c>
     </row>
     <row r="26">
@@ -6212,7 +6212,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6221,19 +6221,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355937</v>
@@ -6242,10 +6242,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>1058.183521551621</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1655.562009178173</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2283.159972732779</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>763.7541388327659</v>
+        <v>696.708435085168</v>
       </c>
       <c r="C28" t="n">
-        <v>705.9324428257312</v>
+        <v>696.708435085168</v>
       </c>
       <c r="D28" t="n">
-        <v>555.8158034133954</v>
+        <v>546.5917956728322</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>398.6787020904392</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6385,49 +6385,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L28" t="n">
         <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570819</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580262</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.963083580262</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603203</v>
+        <v>2160.315914855605</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.286391947401</v>
+        <v>1871.240688199803</v>
       </c>
       <c r="V28" t="n">
-        <v>1683.601903741514</v>
+        <v>1616.556199993916</v>
       </c>
       <c r="W28" t="n">
-        <v>1394.184733704553</v>
+        <v>1327.139029956955</v>
       </c>
       <c r="X28" t="n">
-        <v>1166.195182806536</v>
+        <v>1099.149479058938</v>
       </c>
       <c r="Y28" t="n">
-        <v>945.4026036630056</v>
+        <v>878.3568999154078</v>
       </c>
     </row>
     <row r="29">
@@ -6440,31 +6440,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362692</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332388</v>
@@ -6476,34 +6476,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>95.58405025273903</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>590.9096564684977</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1188.28814409505</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1815.886107649656</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>2367.795837888943</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2367.795837888943</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,49 +6595,49 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263526</v>
+        <v>985.7836617409691</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356194</v>
+        <v>816.8474788130623</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232835</v>
+        <v>666.7308394007264</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408905</v>
+        <v>518.8177458183334</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>371.9277983204231</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>204.7316990353029</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
         <v>2446.96308358026</v>
@@ -6649,22 +6649,22 @@
         <v>2379.917379832663</v>
       </c>
       <c r="T31" t="n">
-        <v>2273.199413378161</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U31" t="n">
-        <v>2273.199413378161</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="V31" t="n">
-        <v>2018.514925172274</v>
+        <v>1905.631426649717</v>
       </c>
       <c r="W31" t="n">
-        <v>1729.097755135313</v>
+        <v>1616.214256612756</v>
       </c>
       <c r="X31" t="n">
-        <v>1501.108204237296</v>
+        <v>1388.224705714739</v>
       </c>
       <c r="Y31" t="n">
-        <v>1280.315625093766</v>
+        <v>1167.432126571209</v>
       </c>
     </row>
     <row r="32">
@@ -6677,34 +6677,34 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F32" t="n">
-        <v>793.773653616861</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075798</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014778</v>
@@ -6713,34 +6713,34 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>579.1554649516144</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1176.533952578166</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1804.131916132773</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>874.8686257536376</v>
+        <v>695.5020655703116</v>
       </c>
       <c r="C34" t="n">
-        <v>705.9324428257307</v>
+        <v>532.5350811160199</v>
       </c>
       <c r="D34" t="n">
-        <v>555.8158034133949</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310019</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330918</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782954</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>2049.400878868272</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1794.716390662385</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1277.309669727407</v>
+        <v>916.2946447138418</v>
       </c>
       <c r="Y34" t="n">
-        <v>1056.517090583877</v>
+        <v>695.5020655703116</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K36" t="n">
-        <v>214.9229991561132</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>710.248605371872</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M36" t="n">
-        <v>1307.627092998424</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1016.580456911438</v>
+        <v>956.9553291057242</v>
       </c>
       <c r="C37" t="n">
-        <v>847.6442739835314</v>
+        <v>788.0191461778173</v>
       </c>
       <c r="D37" t="n">
-        <v>697.5276345711957</v>
+        <v>637.9025067654816</v>
       </c>
       <c r="E37" t="n">
-        <v>549.6145409888043</v>
+        <v>489.9894131830886</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7123,22 +7123,22 @@
         <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258107</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1910.695003076829</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1656.010514870942</v>
       </c>
       <c r="W37" t="n">
-        <v>1500.747069396417</v>
+        <v>1366.593344833981</v>
       </c>
       <c r="X37" t="n">
-        <v>1272.7575184984</v>
+        <v>1138.603793935964</v>
       </c>
       <c r="Y37" t="n">
-        <v>1198.228921741678</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="38">
@@ -7160,7 +7160,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7172,25 +7172,25 @@
         <v>95.34095638192503</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852256</v>
@@ -7199,13 +7199,13 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
         <v>3820.749612123002</v>
@@ -7248,25 +7248,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273906</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>95.58405025273906</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>590.9096564684978</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1188.28814409505</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1815.886107649656</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7306,43 +7306,43 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>874.8686257536382</v>
+        <v>956.9553291057239</v>
       </c>
       <c r="C40" t="n">
-        <v>705.9324428257312</v>
+        <v>788.019146177817</v>
       </c>
       <c r="D40" t="n">
-        <v>555.8158034133954</v>
+        <v>637.9025067654811</v>
       </c>
       <c r="E40" t="n">
-        <v>407.9027098310023</v>
+        <v>489.9894131830881</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>343.0994656851781</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
         <v>435.7419440038344</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797746</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
         <v>2035.089393279803</v>
@@ -7354,28 +7354,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2420.562808876161</v>
       </c>
       <c r="T40" t="n">
-        <v>2197.062545487568</v>
+        <v>2420.562808876161</v>
       </c>
       <c r="U40" t="n">
-        <v>1907.987318831765</v>
+        <v>2131.487582220358</v>
       </c>
       <c r="V40" t="n">
-        <v>1653.302830625878</v>
+        <v>1876.803094014472</v>
       </c>
       <c r="W40" t="n">
-        <v>1363.885660588918</v>
+        <v>1587.385923977511</v>
       </c>
       <c r="X40" t="n">
-        <v>1135.8961096909</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="Y40" t="n">
-        <v>915.1035305473704</v>
+        <v>1138.603793935963</v>
       </c>
     </row>
     <row r="41">
@@ -7388,70 +7388,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K41" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>874.8686257536378</v>
+        <v>580.899304487669</v>
       </c>
       <c r="C43" t="n">
-        <v>705.9324428257312</v>
+        <v>580.899304487669</v>
       </c>
       <c r="D43" t="n">
-        <v>555.8158034133954</v>
+        <v>430.7826650753332</v>
       </c>
       <c r="E43" t="n">
-        <v>407.9027098310023</v>
+        <v>430.7826650753332</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>283.892717577423</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797189</v>
+        <v>283.892717577423</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>142.1808864196211</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797746</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7588,31 +7588,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1938.286391947399</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>1683.601903741512</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>1394.184733704552</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>1166.195182806534</v>
+        <v>983.3403484614389</v>
       </c>
       <c r="Y43" t="n">
-        <v>945.4026036630042</v>
+        <v>762.5477693179088</v>
       </c>
     </row>
     <row r="44">
@@ -7634,40 +7634,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111722</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075815</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1731.250242493492</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1016.58045691144</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C46" t="n">
-        <v>847.6442739835331</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D46" t="n">
-        <v>697.5276345711974</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E46" t="n">
-        <v>549.6145409888043</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7831,25 +7831,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1546.740494934013</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138418</v>
       </c>
       <c r="Y46" t="n">
-        <v>1097.958364892466</v>
+        <v>695.5020655703116</v>
       </c>
     </row>
   </sheetData>
@@ -23255,10 +23255,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>56.09436816636276</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23273,10 +23273,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>288.7511433632822</v>
       </c>
       <c r="I11" t="n">
-        <v>22.60777203238032</v>
+        <v>19.53007201344977</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,16 +23306,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>96.15636898111887</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>201.4146274292354</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>82.74661938063841</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>73.98625807060564</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.7692889308208</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.4743248871677</v>
       </c>
       <c r="I13" t="n">
-        <v>89.7150774703404</v>
+        <v>88.63818461247369</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.00824149146341</v>
+        <v>77.39811087628544</v>
       </c>
       <c r="S13" t="n">
-        <v>185.9226570076762</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>52.40234182782149</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>50.29152613729116</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23546,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>50.29152613728917</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23650,25 +23650,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>8.827219048632186</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>51.98372809164613</v>
       </c>
       <c r="I16" t="n">
         <v>81.80457674440902</v>
@@ -23704,7 +23704,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23735,7 +23735,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>50.2915261372903</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>101.6825818796764</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>132.3517480981658</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23969,7 +23969,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>50.2915261372903</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -24136,16 +24136,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,16 +24172,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>26.22254170853122</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>110.0033420516637</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24376,13 +24376,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>145.1398665102884</v>
       </c>
       <c r="H25" t="n">
-        <v>84.77391660562006</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,16 +24409,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24601,7 +24601,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>110.0033420516635</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24610,7 +24610,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>90.39760398172308</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>30.48882721876618</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,7 +24889,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>111.7546635373311</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -25072,28 +25072,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>5.909506488878918</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856421</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,13 +25120,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>110.0033420516646</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25327,10 +25327,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25366,19 +25366,19 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>153.7108110197793</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>144.8013425629402</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>139.9994244361424</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>140.294712846221</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>154.8900140445858</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -25783,28 +25783,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>110.0033420516646</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>33.38525518063283</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,7 +25834,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26020,19 +26020,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>99.2678512807215</v>
+        <v>138.4949402405069</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26041,7 +26041,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,10 +26071,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>844436.6804924755</v>
+        <v>854487.0436094194</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>918263.3422180928</v>
+        <v>918263.342218093</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>923288.5237765649</v>
+        <v>918263.3422180928</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>923288.5237765649</v>
+        <v>918263.3422180928</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>923288.523776565</v>
+        <v>923288.5237765649</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>923288.523776565</v>
+        <v>923288.5237765649</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>923288.523776565</v>
+        <v>923288.5237765649</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>923288.5237765649</v>
+        <v>923288.523776565</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>923288.523776565</v>
+        <v>923288.5237765649</v>
       </c>
     </row>
   </sheetData>
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.1061651772</v>
+        <v>513151.106165177</v>
       </c>
       <c r="C2" t="n">
+        <v>513151.106165177</v>
+      </c>
+      <c r="D2" t="n">
         <v>513151.1061651771</v>
       </c>
-      <c r="D2" t="n">
-        <v>513151.106165177</v>
-      </c>
       <c r="E2" t="n">
-        <v>460660.045203982</v>
+        <v>466243.5802689508</v>
       </c>
       <c r="F2" t="n">
-        <v>501674.8572737694</v>
+        <v>501674.8572737693</v>
       </c>
       <c r="G2" t="n">
+        <v>501674.8572737693</v>
+      </c>
+      <c r="H2" t="n">
+        <v>501674.8572737693</v>
+      </c>
+      <c r="I2" t="n">
+        <v>504466.6248062538</v>
+      </c>
+      <c r="J2" t="n">
         <v>504466.6248062537</v>
       </c>
-      <c r="H2" t="n">
-        <v>504466.6248062538</v>
-      </c>
-      <c r="I2" t="n">
-        <v>504466.6248062537</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>504466.6248062536</v>
-      </c>
-      <c r="K2" t="n">
-        <v>504466.6248062538</v>
       </c>
       <c r="L2" t="n">
         <v>504466.6248062538</v>
       </c>
       <c r="M2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="N2" t="n">
         <v>504466.6248062538</v>
       </c>
       <c r="O2" t="n">
-        <v>504466.6248062537</v>
+        <v>504466.6248062538</v>
       </c>
       <c r="P2" t="n">
         <v>504466.6248062538</v>
@@ -26363,46 +26363,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208456</v>
+        <v>591356.9025208449</v>
       </c>
       <c r="C3" t="n">
-        <v>392510.2442861773</v>
+        <v>392510.244286178</v>
       </c>
       <c r="D3" t="n">
-        <v>11460.5136773783</v>
+        <v>12010.10621999453</v>
       </c>
       <c r="E3" t="n">
-        <v>408312.2999680394</v>
+        <v>431012.7433043225</v>
       </c>
       <c r="F3" t="n">
-        <v>166521.3471051383</v>
+        <v>143852.0300046394</v>
       </c>
       <c r="G3" t="n">
-        <v>11167.23623557887</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>10818.91345744865</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854465</v>
+        <v>49064.94472854448</v>
       </c>
       <c r="K3" t="n">
-        <v>91259.95686487771</v>
+        <v>91259.95686487788</v>
       </c>
       <c r="L3" t="n">
-        <v>2873.290350199743</v>
+        <v>3011.079893818184</v>
       </c>
       <c r="M3" t="n">
-        <v>106639.5191329074</v>
+        <v>112568.2270402482</v>
       </c>
       <c r="N3" t="n">
-        <v>43782.4065584892</v>
+        <v>37822.10612282979</v>
       </c>
       <c r="O3" t="n">
-        <v>3023.297977224693</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,25 +26415,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>278536.5648341299</v>
+        <v>278536.56483413</v>
       </c>
       <c r="C4" t="n">
         <v>174202.9900888977</v>
       </c>
       <c r="D4" t="n">
-        <v>171039.3658295528</v>
+        <v>170887.6532318873</v>
       </c>
       <c r="E4" t="n">
-        <v>15947.46301458593</v>
+        <v>15960.05821926692</v>
       </c>
       <c r="F4" t="n">
         <v>16040.05135066662</v>
       </c>
       <c r="G4" t="n">
-        <v>16046.58397189197</v>
+        <v>16040.05135066662</v>
       </c>
       <c r="H4" t="n">
-        <v>16046.58397189197</v>
+        <v>16040.05135066662</v>
       </c>
       <c r="I4" t="n">
         <v>16046.58397189197</v>
@@ -26451,10 +26451,10 @@
         <v>16046.58397189197</v>
       </c>
       <c r="N4" t="n">
-        <v>16046.58397189194</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="O4" t="n">
-        <v>16046.58397189191</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="P4" t="n">
         <v>16046.58397189197</v>
@@ -26467,25 +26467,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161359</v>
+        <v>56985.80041161354</v>
       </c>
       <c r="C5" t="n">
         <v>85199.08185587224</v>
       </c>
       <c r="D5" t="n">
-        <v>86091.29148672902</v>
+        <v>86134.07768055706</v>
       </c>
       <c r="E5" t="n">
-        <v>86093.72216214708</v>
+        <v>88006.19635166996</v>
       </c>
       <c r="F5" t="n">
         <v>100142.1285138384</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.5298239071</v>
+        <v>100142.1285138384</v>
       </c>
       <c r="H5" t="n">
-        <v>101122.5298239071</v>
+        <v>100142.1285138384</v>
       </c>
       <c r="I5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-413728.1616014119</v>
+        <v>-413728.1616014115</v>
       </c>
       <c r="C6" t="n">
-        <v>-138761.2100657702</v>
+        <v>-138761.210065771</v>
       </c>
       <c r="D6" t="n">
-        <v>244559.9351715169</v>
+        <v>244119.2690327382</v>
       </c>
       <c r="E6" t="n">
-        <v>-49693.43994079041</v>
+        <v>-68923.04770989342</v>
       </c>
       <c r="F6" t="n">
-        <v>218971.3303041261</v>
+        <v>241594.7424090593</v>
       </c>
       <c r="G6" t="n">
-        <v>376130.2747748757</v>
+        <v>385446.7724136987</v>
       </c>
       <c r="H6" t="n">
-        <v>387297.5110104545</v>
+        <v>385446.7724136987</v>
       </c>
       <c r="I6" t="n">
-        <v>387297.5110104548</v>
+        <v>376443.8596275703</v>
       </c>
       <c r="J6" t="n">
-        <v>338232.5662819099</v>
+        <v>338197.8283564745</v>
       </c>
       <c r="K6" t="n">
-        <v>296037.554145577</v>
+        <v>296002.816220141</v>
       </c>
       <c r="L6" t="n">
-        <v>384424.2206602549</v>
+        <v>384251.6931912008</v>
       </c>
       <c r="M6" t="n">
-        <v>280657.9918775473</v>
+        <v>274694.5460447706</v>
       </c>
       <c r="N6" t="n">
-        <v>343515.1044519655</v>
+        <v>349440.6669621892</v>
       </c>
       <c r="O6" t="n">
-        <v>384274.21303323</v>
+        <v>387262.773085019</v>
       </c>
       <c r="P6" t="n">
-        <v>387297.5110104547</v>
+        <v>387262.773085019</v>
       </c>
     </row>
   </sheetData>
@@ -26735,25 +26735,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129048</v>
+        <v>548.4699409129042</v>
       </c>
       <c r="C3" t="n">
         <v>853.7106645376841</v>
       </c>
       <c r="D3" t="n">
-        <v>862.974869502189</v>
+        <v>863.4191373688039</v>
       </c>
       <c r="E3" t="n">
-        <v>1212.170267494556</v>
+        <v>1232.028328053766</v>
       </c>
       <c r="F3" t="n">
         <v>1358.041048716386</v>
       </c>
       <c r="G3" t="n">
-        <v>1367.975500341674</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="H3" t="n">
-        <v>1367.975500341674</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="I3" t="n">
         <v>1367.975500341674</v>
@@ -26787,46 +26787,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="C4" t="n">
         <v>542.1149567261632</v>
       </c>
       <c r="D4" t="n">
-        <v>553.4677521641661</v>
+        <v>554.0121790446897</v>
       </c>
       <c r="E4" t="n">
-        <v>981.3883278086477</v>
+        <v>1005.723335527925</v>
       </c>
       <c r="F4" t="n">
-        <v>1160.145290326006</v>
+        <v>1160.145290326007</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1160.145290326007</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1160.145290326007</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26957,28 +26957,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129048</v>
+        <v>548.4699409129042</v>
       </c>
       <c r="C3" t="n">
-        <v>305.2407236247793</v>
+        <v>305.2407236247799</v>
       </c>
       <c r="D3" t="n">
-        <v>9.26420496450487</v>
+        <v>9.708472831119821</v>
       </c>
       <c r="E3" t="n">
-        <v>349.1953979923667</v>
+        <v>368.6091906849625</v>
       </c>
       <c r="F3" t="n">
-        <v>145.8707812218302</v>
+        <v>126.0127206626194</v>
       </c>
       <c r="G3" t="n">
-        <v>9.93445162528792</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>9.934451625288148</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26987,7 +26987,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27009,46 +27009,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="C4" t="n">
-        <v>354.5893695598431</v>
+        <v>354.5893695598436</v>
       </c>
       <c r="D4" t="n">
-        <v>11.35279543800286</v>
+        <v>11.89722231852647</v>
       </c>
       <c r="E4" t="n">
-        <v>427.9205756444816</v>
+        <v>451.7111564832354</v>
       </c>
       <c r="F4" t="n">
-        <v>178.7569625173588</v>
+        <v>154.4219547980819</v>
       </c>
       <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>12.56299777364188</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
       <c r="J4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663194</v>
       </c>
       <c r="K4" t="n">
-        <v>354.5893695598431</v>
+        <v>354.5893695598438</v>
       </c>
       <c r="L4" t="n">
-        <v>11.35279543800286</v>
+        <v>11.89722231852647</v>
       </c>
       <c r="M4" t="n">
-        <v>427.9205756444816</v>
+        <v>451.7111564832354</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173591</v>
+        <v>154.4219547980819</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364188</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27255,22 +27255,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="K4" t="n">
-        <v>354.5893695598431</v>
+        <v>354.5893695598436</v>
       </c>
       <c r="L4" t="n">
-        <v>11.35279543800286</v>
+        <v>11.89722231852647</v>
       </c>
       <c r="M4" t="n">
-        <v>427.9205756444816</v>
+        <v>451.7111564832354</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173588</v>
+        <v>154.4219547980819</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364188</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27385,19 +27385,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>194.4047829059417</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>219.3504585753914</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>225.5722460637384</v>
       </c>
       <c r="H2" t="n">
-        <v>316.8938261062223</v>
+        <v>129.3682389399027</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199748</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,13 +27427,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>158.7758131900532</v>
       </c>
       <c r="T2" t="n">
         <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
-        <v>114.1220055893121</v>
+        <v>169.9544881473113</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27445,7 +27445,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>198.7123514897339</v>
       </c>
     </row>
     <row r="3">
@@ -27458,7 +27458,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -27467,19 +27467,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409147</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>15.37922103265846</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27506,19 +27506,19 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>60.77571432608755</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8637684100909</v>
+        <v>102.9115454906371</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>45.27499998310563</v>
       </c>
       <c r="W3" t="n">
-        <v>64.16939599459954</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -27552,16 +27552,16 @@
         <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
-        <v>153.4336708318196</v>
+        <v>115.3220344714141</v>
       </c>
       <c r="I4" t="n">
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825414</v>
+        <v>57.06999962825422</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402848</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27576,10 +27576,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>18.10760906709393</v>
       </c>
       <c r="Q4" t="n">
-        <v>34.57770336425637</v>
+        <v>68.6860405515973</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
@@ -27613,22 +27613,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>283.8902824714777</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>42.75439122352583</v>
       </c>
       <c r="H5" t="n">
         <v>304.326804756183</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>130.8133087092504</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27695,25 +27695,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>44.94741367674381</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>36.29946757904885</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,7 +27740,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>31.66886087721431</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -27749,10 +27749,10 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8205739680685</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>17.10096202540754</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -27816,13 +27816,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>22.59469128425553</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>108.0728512656386</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>197.1876907596159</v>
       </c>
       <c r="T7" t="n">
         <v>221.3678187343026</v>
@@ -27834,13 +27834,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>205.2532110633799</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>201.9853566220296</v>
       </c>
     </row>
     <row r="8">
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>359.0710371216482</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>129.9646330484317</v>
+        <v>129.9239345398469</v>
       </c>
       <c r="T8" t="n">
-        <v>207.9092264837461</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0681132513132</v>
+        <v>251.0679703711953</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>62.72296822231453</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27932,22 +27932,22 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>135.7930470732723</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>94.29913347719358</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -27977,22 +27977,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>30.4316525236527</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>137.2048826855192</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>192.6828994016847</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8192629956679</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>57.35038844876311</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -28014,25 +28014,25 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.4347951675532</v>
+        <v>139.0243001534317</v>
       </c>
       <c r="H10" t="n">
-        <v>148.3912803373881</v>
+        <v>148.3841574853627</v>
       </c>
       <c r="I10" t="n">
-        <v>108.6517721680248</v>
+        <v>108.6276797401107</v>
       </c>
       <c r="J10" t="n">
-        <v>14.61087863935504</v>
+        <v>16.91655863091763</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,19 +28053,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>21.12871188675646</v>
       </c>
       <c r="R10" t="n">
-        <v>107.321691302451</v>
+        <v>107.2856691898563</v>
       </c>
       <c r="S10" t="n">
-        <v>196.8965517281904</v>
+        <v>196.882590064251</v>
       </c>
       <c r="T10" t="n">
-        <v>221.2964387944122</v>
+        <v>221.2930157469153</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2341465824415</v>
+        <v>286.2341028839628</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -29284,10 +29284,10 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>-4.113292621083595e-13</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>-1.70530256582424e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29463,7 +29463,7 @@
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -29484,7 +29484,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>5.655920176650397e-13</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -29925,7 +29925,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -30034,7 +30034,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>-5.055922180081919e-13</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30150,7 +30150,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>1.676880856393836e-12</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -30271,7 +30271,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>-8.44124770082999e-13</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30280,7 +30280,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>-8.30056023914949e-13</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -30396,7 +30396,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2.799680487441947e-12</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077002</v>
+        <v>2.204904285077</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954486</v>
+        <v>22.58097600954483</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043123</v>
+        <v>85.00457245043114</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655544</v>
+        <v>187.1384950655542</v>
       </c>
       <c r="K2" t="n">
-        <v>280.472093452864</v>
+        <v>280.4720934528637</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672894</v>
+        <v>347.950432967289</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470275</v>
+        <v>387.1618995470271</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470026</v>
+        <v>393.4265838470022</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622681</v>
+        <v>371.5015668622677</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244296</v>
+        <v>317.0679923244292</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151093</v>
+        <v>238.1048576151091</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974684</v>
+        <v>138.5038187974682</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619225</v>
+        <v>50.24425639619219</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924584</v>
+        <v>9.651968507924574</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061602</v>
+        <v>0.17639234280616</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435305</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
-        <v>11.39368688575676</v>
+        <v>11.39368688575675</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590852</v>
+        <v>40.61782109590848</v>
       </c>
       <c r="J3" t="n">
-        <v>111.4584056340083</v>
+        <v>111.4584056340082</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621737</v>
+        <v>190.5001680621735</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405033</v>
+        <v>256.1509851405031</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975331</v>
+        <v>298.9161177975328</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829655</v>
+        <v>306.8275379829652</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292674</v>
+        <v>280.6872536292671</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628873</v>
+        <v>225.276266862887</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936715</v>
+        <v>150.5912184936714</v>
       </c>
       <c r="R3" t="n">
-        <v>73.2466083355008</v>
+        <v>73.24660833550071</v>
       </c>
       <c r="S3" t="n">
-        <v>21.91292641288821</v>
+        <v>21.91292641288819</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820371</v>
+        <v>4.755130902820366</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390166</v>
+        <v>0.07761367088390157</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445823</v>
+        <v>0.9890441557445813</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620019</v>
+        <v>8.793501675620011</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639163</v>
+        <v>29.7432551563916</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114197</v>
+        <v>69.92542181114189</v>
       </c>
       <c r="K4" t="n">
-        <v>114.9089482765069</v>
+        <v>114.9089482765068</v>
       </c>
       <c r="L4" t="n">
-        <v>147.0438920276991</v>
+        <v>147.0438920276989</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682166</v>
+        <v>155.0371670682165</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604415</v>
+        <v>151.3507297604413</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592434</v>
+        <v>139.7968957592432</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820538</v>
+        <v>119.6203949820537</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784863</v>
+        <v>82.81896107784854</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647912</v>
+        <v>44.47102176647907</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147603</v>
+        <v>17.23634224147602</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181396</v>
+        <v>4.225915938181392</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061364</v>
+        <v>0.05394786304061359</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.469245706541461</v>
+        <v>3.471031708015289</v>
       </c>
       <c r="H8" t="n">
-        <v>35.52941259211774</v>
+        <v>35.54770347971159</v>
       </c>
       <c r="I8" t="n">
-        <v>133.7480951014398</v>
+        <v>133.8169499232596</v>
       </c>
       <c r="J8" t="n">
-        <v>294.4478927855736</v>
+        <v>294.599477428163</v>
       </c>
       <c r="K8" t="n">
-        <v>441.3010635434737</v>
+        <v>441.5282496284502</v>
       </c>
       <c r="L8" t="n">
-        <v>547.472991835042</v>
+        <v>547.7548362626233</v>
       </c>
       <c r="M8" t="n">
-        <v>609.1691901687487</v>
+        <v>609.4827964000401</v>
       </c>
       <c r="N8" t="n">
-        <v>619.0261845324596</v>
+        <v>619.3448652404387</v>
       </c>
       <c r="O8" t="n">
-        <v>584.5288725380379</v>
+        <v>584.8297936938616</v>
       </c>
       <c r="P8" t="n">
-        <v>498.8818691577956</v>
+        <v>499.1386984022341</v>
       </c>
       <c r="Q8" t="n">
-        <v>374.6395072922794</v>
+        <v>374.8323753589364</v>
       </c>
       <c r="R8" t="n">
-        <v>217.9250056135352</v>
+        <v>218.0371955286156</v>
       </c>
       <c r="S8" t="n">
-        <v>79.05543653781362</v>
+        <v>79.09613504639849</v>
       </c>
       <c r="T8" t="n">
-        <v>15.18662308038525</v>
+        <v>15.19444130183694</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2775396565233168</v>
+        <v>0.2776825366412231</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.856210096665086</v>
+        <v>1.857165691698937</v>
       </c>
       <c r="H9" t="n">
-        <v>17.92708172305491</v>
+        <v>17.93631075930289</v>
       </c>
       <c r="I9" t="n">
-        <v>63.90898797728476</v>
+        <v>63.941888946652</v>
       </c>
       <c r="J9" t="n">
-        <v>175.3711477730817</v>
+        <v>175.4614305477491</v>
       </c>
       <c r="K9" t="n">
-        <v>299.7372242496424</v>
+        <v>299.8915318915779</v>
       </c>
       <c r="L9" t="n">
-        <v>403.0336878745837</v>
+        <v>403.2411735419117</v>
       </c>
       <c r="M9" t="n">
-        <v>470.321303878693</v>
+        <v>470.5634298659981</v>
       </c>
       <c r="N9" t="n">
-        <v>482.7693093076444</v>
+        <v>483.0178436493651</v>
       </c>
       <c r="O9" t="n">
-        <v>441.6396013762759</v>
+        <v>441.8669617438255</v>
       </c>
       <c r="P9" t="n">
-        <v>354.4547157394935</v>
+        <v>354.6371924788961</v>
       </c>
       <c r="Q9" t="n">
-        <v>236.9435905848275</v>
+        <v>237.0655714526573</v>
       </c>
       <c r="R9" t="n">
-        <v>115.2478514403113</v>
+        <v>115.3071821565358</v>
       </c>
       <c r="S9" t="n">
-        <v>34.47828841831857</v>
+        <v>34.49603817695172</v>
       </c>
       <c r="T9" t="n">
-        <v>7.4818292931369</v>
+        <v>7.485681011716326</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1221190853069136</v>
+        <v>0.1221819534012459</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.556184190905586</v>
+        <v>1.55698532968145</v>
       </c>
       <c r="H10" t="n">
-        <v>13.8358921700515</v>
+        <v>13.8430150220769</v>
       </c>
       <c r="I10" t="n">
-        <v>46.79870275923347</v>
+        <v>46.82279518714761</v>
       </c>
       <c r="J10" t="n">
-        <v>110.022222297025</v>
+        <v>110.0788628084785</v>
       </c>
       <c r="K10" t="n">
-        <v>180.8003087252127</v>
+        <v>180.8933864848084</v>
       </c>
       <c r="L10" t="n">
-        <v>231.3621478006361</v>
+        <v>231.4812552873676</v>
       </c>
       <c r="M10" t="n">
-        <v>243.9389454889548</v>
+        <v>244.0645276336112</v>
       </c>
       <c r="N10" t="n">
-        <v>238.1386225955796</v>
+        <v>238.261218677526</v>
       </c>
       <c r="O10" t="n">
-        <v>219.9595618200006</v>
+        <v>220.072799144429</v>
       </c>
       <c r="P10" t="n">
-        <v>188.2134043255265</v>
+        <v>188.3102984189272</v>
       </c>
       <c r="Q10" t="n">
-        <v>130.3092052948305</v>
+        <v>130.3762897426894</v>
       </c>
       <c r="R10" t="n">
-        <v>69.97170007471844</v>
+        <v>70.00772218731316</v>
       </c>
       <c r="S10" t="n">
-        <v>27.12004630878189</v>
+        <v>27.13400797272125</v>
       </c>
       <c r="T10" t="n">
-        <v>6.649150633869323</v>
+        <v>6.652573681366192</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08488277404939573</v>
+        <v>0.08492647252807917</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.873046301485648</v>
+        <v>4.952877700718656</v>
       </c>
       <c r="H11" t="n">
-        <v>49.9060854350899</v>
+        <v>50.72365875248494</v>
       </c>
       <c r="I11" t="n">
-        <v>187.8681175380256</v>
+        <v>190.9458175569561</v>
       </c>
       <c r="J11" t="n">
-        <v>413.5937135307178</v>
+        <v>420.3693037513704</v>
       </c>
       <c r="K11" t="n">
-        <v>619.8697634726054</v>
+        <v>630.0246168227911</v>
       </c>
       <c r="L11" t="n">
-        <v>769.0032542216969</v>
+        <v>781.6012477561599</v>
       </c>
       <c r="M11" t="n">
-        <v>855.6642913857423</v>
+        <v>869.6819865663152</v>
       </c>
       <c r="N11" t="n">
-        <v>869.5098341898384</v>
+        <v>883.7543503334822</v>
       </c>
       <c r="O11" t="n">
-        <v>821.0534800294405</v>
+        <v>834.5041726969609</v>
       </c>
       <c r="P11" t="n">
-        <v>700.7501494615135</v>
+        <v>712.2300044604691</v>
       </c>
       <c r="Q11" t="n">
-        <v>526.2341787895585</v>
+        <v>534.855071803482</v>
       </c>
       <c r="R11" t="n">
-        <v>306.106494735698</v>
+        <v>311.1212038677685</v>
       </c>
       <c r="S11" t="n">
-        <v>111.0445425951043</v>
+        <v>112.8637006051265</v>
       </c>
       <c r="T11" t="n">
-        <v>21.33176018475343</v>
+        <v>21.68122213489593</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3898437041188517</v>
+        <v>0.3962302160574924</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,34 +31829,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.607309631969422</v>
+        <v>2.65002319619112</v>
       </c>
       <c r="H12" t="n">
-        <v>25.18112197191521</v>
+        <v>25.59364507900372</v>
       </c>
       <c r="I12" t="n">
-        <v>89.76921320596475</v>
+        <v>91.23983372851008</v>
       </c>
       <c r="J12" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>421.0233277202553</v>
+        <v>256.3016302487872</v>
       </c>
       <c r="L12" t="n">
-        <v>566.1178216256413</v>
+        <v>575.3920979273747</v>
       </c>
       <c r="M12" t="n">
-        <v>660.6327957845327</v>
+        <v>671.4554387893027</v>
       </c>
       <c r="N12" t="n">
-        <v>678.1177801147138</v>
+        <v>689.2268662760406</v>
       </c>
       <c r="O12" t="n">
-        <v>620.3452877431807</v>
+        <v>630.5079312446478</v>
       </c>
       <c r="P12" t="n">
-        <v>385.6381359012568</v>
+        <v>506.0382013849518</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31865,13 +31865,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>48.42963285697585</v>
+        <v>49.22301857837451</v>
       </c>
       <c r="T12" t="n">
-        <v>10.50928750780657</v>
+        <v>10.68145314605105</v>
       </c>
       <c r="U12" t="n">
-        <v>0.171533528419041</v>
+        <v>0.1743436313283633</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.185880810236084</v>
+        <v>2.221690427637939</v>
       </c>
       <c r="H13" t="n">
-        <v>19.43446756737174</v>
+        <v>19.75284762027188</v>
       </c>
       <c r="I13" t="n">
-        <v>65.73539745691788</v>
+        <v>66.81229031478459</v>
       </c>
       <c r="J13" t="n">
-        <v>154.5417732836911</v>
+        <v>157.0735132340023</v>
       </c>
       <c r="K13" t="n">
-        <v>253.959606861974</v>
+        <v>258.1200333201169</v>
       </c>
       <c r="L13" t="n">
-        <v>324.9808615509174</v>
+        <v>330.3047750326442</v>
       </c>
       <c r="M13" t="n">
-        <v>342.6467528263708</v>
+        <v>348.2600731250998</v>
       </c>
       <c r="N13" t="n">
-        <v>334.4993788973093</v>
+        <v>339.9792269857223</v>
       </c>
       <c r="O13" t="n">
-        <v>308.9643167050058</v>
+        <v>314.0258433537699</v>
       </c>
       <c r="P13" t="n">
-        <v>264.3723481761895</v>
+        <v>268.7033586299557</v>
       </c>
       <c r="Q13" t="n">
-        <v>183.0377103916779</v>
+        <v>186.0362775361187</v>
       </c>
       <c r="R13" t="n">
-        <v>98.28514988570608</v>
+        <v>99.89528050088404</v>
       </c>
       <c r="S13" t="n">
-        <v>38.0939410292961</v>
+        <v>38.71800499801753</v>
       </c>
       <c r="T13" t="n">
-        <v>9.339672552826901</v>
+        <v>9.492677281725738</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1192298623765138</v>
+        <v>0.1211831142347968</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32072,28 +32072,28 @@
         <v>28.21138103088191</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J15" t="n">
         <v>275.9770021735818</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L15" t="n">
         <v>634.2436048745725</v>
       </c>
       <c r="M15" t="n">
-        <v>740.1323715504302</v>
+        <v>595.019321785926</v>
       </c>
       <c r="N15" t="n">
         <v>759.7214730927639</v>
       </c>
       <c r="O15" t="n">
-        <v>694.9967242426205</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>195.1793561990816</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,31 +32303,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>421.3049304638554</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32339,13 +32339,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R19" t="n">
-        <v>110.9181446670478</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T19" t="n">
-        <v>10.54013910099322</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N21" t="n">
-        <v>191.332301678856</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>422.3544583169084</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937734</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189903</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R22" t="n">
-        <v>110.9181446670478</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T22" t="n">
-        <v>10.54013910099322</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>240.4469701760392</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33026,37 +33026,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>622.4211036182646</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>290.1088399635148</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33494,7 +33494,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33503,7 +33503,7 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862122</v>
@@ -33512,16 +33512,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>198.560797075695</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742439</v>
@@ -33731,13 +33731,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>258.3858318060501</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473073</v>
@@ -33746,19 +33746,19 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>616.9033572954392</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742439</v>
@@ -33968,13 +33968,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473073</v>
@@ -33986,10 +33986,10 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>459.3154675919703</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34205,13 +34205,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>326.7634969305192</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473073</v>
@@ -34223,16 +34223,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>353.130074847795</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742439</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34442,7 +34442,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34457,19 +34457,19 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>191.332301678856</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742439</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868137</v>
+        <v>6.092590538867938</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788344</v>
+        <v>60.38224240788315</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973021</v>
+        <v>112.1840179973018</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197548</v>
+        <v>156.8156663197544</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504117</v>
+        <v>164.0135202504113</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405814</v>
+        <v>141.403355440581</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656916001</v>
+        <v>85.83499656915967</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065984</v>
+        <v>15.79916774065958</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781475</v>
+        <v>52.65872908781455</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606292</v>
+        <v>117.5966053606289</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755148</v>
+        <v>156.7820838755144</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996322</v>
+        <v>175.4858258996319</v>
       </c>
       <c r="O3" t="n">
-        <v>138.091009184823</v>
+        <v>138.0910091848227</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855702</v>
+        <v>91.3018594485568</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440765002</v>
+        <v>10.60944440764987</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,16 +34860,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646083</v>
+        <v>12.15921574646066</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061158</v>
+        <v>16.11138312061144</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520832</v>
+        <v>23.66518529520815</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400581</v>
+        <v>1.340357307400438</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>113.4019882588873</v>
+        <v>113.5535729014767</v>
       </c>
       <c r="K8" t="n">
-        <v>221.2112124984931</v>
+        <v>221.4383985834697</v>
       </c>
       <c r="L8" t="n">
-        <v>311.7065768650547</v>
+        <v>311.988421292636</v>
       </c>
       <c r="M8" t="n">
-        <v>378.822956941476</v>
+        <v>379.1365631727674</v>
       </c>
       <c r="N8" t="n">
-        <v>389.6131209358687</v>
+        <v>389.9318016438478</v>
       </c>
       <c r="O8" t="n">
-        <v>354.4306611163512</v>
+        <v>354.7315822721748</v>
       </c>
       <c r="P8" t="n">
-        <v>267.6488734025261</v>
+        <v>267.9057026469645</v>
       </c>
       <c r="Q8" t="n">
-        <v>152.3338174178299</v>
+        <v>152.5266854844869</v>
       </c>
       <c r="R8" t="n">
-        <v>2.33946779940311</v>
+        <v>2.451657714483503</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>48.53352110641498</v>
+        <v>48.62380388108244</v>
       </c>
       <c r="K9" t="n">
-        <v>161.8957852752834</v>
+        <v>162.0500929172189</v>
       </c>
       <c r="L9" t="n">
-        <v>264.4793080947095</v>
+        <v>264.6867937620376</v>
       </c>
       <c r="M9" t="n">
-        <v>328.1872699566746</v>
+        <v>328.4293959439798</v>
       </c>
       <c r="N9" t="n">
-        <v>351.4275972243111</v>
+        <v>351.6761315660318</v>
       </c>
       <c r="O9" t="n">
-        <v>299.0433569318315</v>
+        <v>299.2707172993811</v>
       </c>
       <c r="P9" t="n">
-        <v>220.4803083251632</v>
+        <v>220.6627850645659</v>
       </c>
       <c r="Q9" t="n">
-        <v>96.96181649880594</v>
+        <v>97.08379736663576</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>51.78705055467728</v>
+        <v>51.88012831427298</v>
       </c>
       <c r="L10" t="n">
-        <v>96.47747151939777</v>
+        <v>96.59657900612928</v>
       </c>
       <c r="M10" t="n">
-        <v>105.0131615413497</v>
+        <v>105.1387436860061</v>
       </c>
       <c r="N10" t="n">
-        <v>110.4530781303464</v>
+        <v>110.5756742122928</v>
       </c>
       <c r="O10" t="n">
-        <v>81.50302336815784</v>
+        <v>81.6162606925862</v>
       </c>
       <c r="P10" t="n">
-        <v>50.4854002763789</v>
+        <v>50.58229436977962</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>232.5478090040315</v>
+        <v>239.3233992246841</v>
       </c>
       <c r="K11" t="n">
-        <v>399.7799124276249</v>
+        <v>409.9347657778106</v>
       </c>
       <c r="L11" t="n">
-        <v>533.2368392517096</v>
+        <v>545.8348327861727</v>
       </c>
       <c r="M11" t="n">
-        <v>625.3180581584696</v>
+        <v>639.3357533390425</v>
       </c>
       <c r="N11" t="n">
-        <v>640.0967705932476</v>
+        <v>654.3412867368913</v>
       </c>
       <c r="O11" t="n">
-        <v>590.9552686077537</v>
+        <v>604.4059612752742</v>
       </c>
       <c r="P11" t="n">
-        <v>469.517153706244</v>
+        <v>480.9970087051996</v>
       </c>
       <c r="Q11" t="n">
-        <v>303.928488915109</v>
+        <v>312.5493819290325</v>
       </c>
       <c r="R11" t="n">
-        <v>90.52095692156593</v>
+        <v>95.53566605363642</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,22 +35489,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>283.1818887458963</v>
+        <v>118.4601912744282</v>
       </c>
       <c r="L12" t="n">
-        <v>427.5634418457672</v>
+        <v>436.8377181475005</v>
       </c>
       <c r="M12" t="n">
-        <v>518.4987618625144</v>
+        <v>529.3214048672844</v>
       </c>
       <c r="N12" t="n">
-        <v>546.7760680313805</v>
+        <v>557.8851541927073</v>
       </c>
       <c r="O12" t="n">
-        <v>477.7490432987363</v>
+        <v>487.9116868002034</v>
       </c>
       <c r="P12" t="n">
-        <v>251.6637284869265</v>
+        <v>372.0637939706215</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>61.18259316701833</v>
+        <v>63.71433311732952</v>
       </c>
       <c r="K13" t="n">
-        <v>231.6901150360912</v>
+        <v>235.850541494234</v>
       </c>
       <c r="L13" t="n">
-        <v>352.5708868112335</v>
+        <v>357.8948002929603</v>
       </c>
       <c r="M13" t="n">
-        <v>382.2306297882114</v>
+        <v>387.8439500869404</v>
       </c>
       <c r="N13" t="n">
-        <v>378.6315512765379</v>
+        <v>384.1113993649509</v>
       </c>
       <c r="O13" t="n">
-        <v>333.5494446190455</v>
+        <v>338.6109712678096</v>
       </c>
       <c r="P13" t="n">
-        <v>261.650907441083</v>
+        <v>265.9819178948492</v>
       </c>
       <c r="Q13" t="n">
-        <v>96.87566713998352</v>
+        <v>99.87423428442433</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35720,28 +35720,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.049527853053121</v>
       </c>
       <c r="J15" t="n">
         <v>149.1393755069151</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L15" t="n">
         <v>495.6892250946983</v>
       </c>
       <c r="M15" t="n">
-        <v>597.9983376284119</v>
+        <v>452.8852878639077</v>
       </c>
       <c r="N15" t="n">
         <v>628.3797610094306</v>
       </c>
       <c r="O15" t="n">
-        <v>552.4004797981761</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>61.20494878475137</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,25 +35957,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.049527853053121</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>278.7086860194109</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N21" t="n">
-        <v>59.99058959552271</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>279.758213872464</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,25 +36440,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>101.892590396165</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36677,25 +36677,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>483.8667238383904</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010465</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>150.1270658774933</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,7 +37151,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,16 +37160,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>55.96455263125056</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37379,13 +37379,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>120.5443928316911</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.3288951674331</v>
@@ -37394,19 +37394,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>485.5616452121058</v>
       </c>
       <c r="O36" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.3288951674331</v>
@@ -37634,10 +37634,10 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>316.7192231475259</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37853,13 +37853,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>188.9220579561602</v>
       </c>
       <c r="L42" t="n">
         <v>500.3288951674331</v>
@@ -37871,16 +37871,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>219.1556674334648</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38105,19 +38105,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>59.99058959552271</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
